--- a/code/excels/kvConfig/prop_config.xlsx
+++ b/code/excels/kvConfig/prop_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="203">
   <si>
     <t>主键</t>
   </si>
@@ -38,60 +38,93 @@
     <t>STATS_STRENGTH_BASE</t>
   </si>
   <si>
-    <t>力量</t>
+    <t>力量基础</t>
   </si>
   <si>
     <t>STATS_STRENGTH_BASE_PERCENTAGE</t>
   </si>
   <si>
+    <t>力量基础百分比</t>
+  </si>
+  <si>
     <t>STATS_STRENGTH_BONUS</t>
   </si>
   <si>
+    <t>力量额外</t>
+  </si>
+  <si>
     <t>STATS_STRENGTH_BONUS_CONSTANT</t>
   </si>
   <si>
-    <t>力量最终数值</t>
+    <t>力量最终</t>
   </si>
   <si>
     <t>STATS_STRENGTH_PERCENTAGE</t>
   </si>
   <si>
+    <t>力量百分比</t>
+  </si>
+  <si>
     <t>STATS_AGILITY_BASE</t>
   </si>
   <si>
-    <t>敏捷</t>
+    <t>敏捷基础</t>
   </si>
   <si>
     <t>STATS_AGILITY_BASE_PERCENTAGE</t>
   </si>
   <si>
+    <t>敏捷基础百分比</t>
+  </si>
+  <si>
     <t>STATS_AGILITY_BONUS</t>
   </si>
   <si>
+    <t>敏捷额外</t>
+  </si>
+  <si>
     <t>STATS_AGILITY_BONUS_CONSTANT</t>
   </si>
   <si>
+    <t>敏捷最终</t>
+  </si>
+  <si>
     <t>STATS_AGILITY_PERCENTAGE</t>
   </si>
   <si>
+    <t>敏捷百分比</t>
+  </si>
+  <si>
     <t>STATS_INTELLECT_BASE</t>
   </si>
   <si>
-    <t>智力</t>
+    <t>智力基础</t>
   </si>
   <si>
     <t>STATS_INTELLECT_BASE_PERCENTAGE</t>
   </si>
   <si>
+    <t>智力基础百分比</t>
+  </si>
+  <si>
     <t>STATS_INTELLECT_BONUS</t>
   </si>
   <si>
+    <t>智力额外</t>
+  </si>
+  <si>
     <t>STATS_INTELLECT_BONUS_CONSTANT</t>
   </si>
   <si>
+    <t>智力最终</t>
+  </si>
+  <si>
     <t>STATS_INTELLECT_PERCENTAGE</t>
   </si>
   <si>
+    <t>智力百分比</t>
+  </si>
+  <si>
     <t>STATS_ALL_BASE</t>
   </si>
   <si>
@@ -107,7 +140,7 @@
     <t>STATS_ALL_PERCENTAGE</t>
   </si>
   <si>
-    <t>全属性总百分比</t>
+    <t>全属性百分比</t>
   </si>
   <si>
     <t>STATS_PRIMARY_BASE</t>
@@ -125,18 +158,21 @@
     <t>STATS_PRIMARY_PERCENTAGE</t>
   </si>
   <si>
-    <t>主属性总百分比</t>
+    <t>主属性百分比</t>
   </si>
   <si>
     <t>HEALTH_BONUS</t>
   </si>
   <si>
-    <t>生命值</t>
+    <t>生命值额外</t>
   </si>
   <si>
     <t>HEALTH_PERCENTAGE</t>
   </si>
   <si>
+    <t>生命值百分比</t>
+  </si>
+  <si>
     <t>HEALTH_REGEN_CONSTANT</t>
   </si>
   <si>
@@ -146,12 +182,15 @@
     <t>MANA_BONUS</t>
   </si>
   <si>
-    <t>魔法值</t>
+    <t>魔法额外</t>
   </si>
   <si>
     <t>MANA_PERCENTAGE</t>
   </si>
   <si>
+    <t>魔法百分比</t>
+  </si>
+  <si>
     <t>MANACOST_REDUCTION_CONSTANT</t>
   </si>
   <si>
@@ -161,6 +200,9 @@
     <t>MANACOST_PERCENTAGE</t>
   </si>
   <si>
+    <t>魔法消耗百分比</t>
+  </si>
+  <si>
     <t>MANACOST_PERCENTAGE_STACKING</t>
   </si>
   <si>
@@ -173,18 +215,27 @@
     <t>MANA_REGEN_CONSTANT_UNIQUE</t>
   </si>
   <si>
+    <t>魔法恢复最终</t>
+  </si>
+  <si>
     <t>MANA_REGEN_AMPLIFY_PERCENTAGE</t>
   </si>
   <si>
+    <t>魔法恢复百分比</t>
+  </si>
+  <si>
     <t>ENERGY_BONUS</t>
   </si>
   <si>
-    <t>怒气</t>
+    <t>怒气额外</t>
   </si>
   <si>
     <t>ENERGY_BONUS_PERCENTAGE</t>
   </si>
   <si>
+    <t>怒气额外百分比</t>
+  </si>
+  <si>
     <t>ENERGY_REGEN_CONSTANT</t>
   </si>
   <si>
@@ -194,39 +245,13 @@
     <t>ENERGY_REGEN_PERCENTAGE</t>
   </si>
   <si>
+    <t>怒气恢复百分比</t>
+  </si>
+  <si>
     <t>BASEATTACK_BONUSDAMAGE</t>
   </si>
   <si>
-    <r>
-      <t>基础攻击力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白字</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>基础攻击力</t>
   </si>
   <si>
     <t>BASEDAMAGEOUTGOING_PERCENTAGE</t>
@@ -238,39 +263,63 @@
     <t>PHYSICAL_ARMOR_BASE</t>
   </si>
   <si>
-    <t>物理护甲</t>
+    <t>物理护甲基础</t>
   </si>
   <si>
     <t>PHYSICAL_ARMOR_BASE_PERCENTAGE</t>
   </si>
   <si>
+    <t>物理护甲基础百分比</t>
+  </si>
+  <si>
     <t>PHYSICAL_ARMOR_BONUS</t>
   </si>
   <si>
+    <t>物理护甲额外</t>
+  </si>
+  <si>
     <t>PHYSICAL_ARMOR_BONUS_CONSTANT</t>
   </si>
   <si>
+    <t>物理护甲最终</t>
+  </si>
+  <si>
     <t>PHYSICAL_ARMOR_PERCENTAGE</t>
   </si>
   <si>
+    <t>物理护甲百分比</t>
+  </si>
+  <si>
     <t>MAGICAL_ARMOR_BASE</t>
   </si>
   <si>
-    <t>魔法护甲</t>
+    <t>魔法护甲基础</t>
   </si>
   <si>
     <t>MAGICAL_ARMOR_BASE_PERCENTAGE</t>
   </si>
   <si>
+    <t>魔法护甲基础百分比</t>
+  </si>
+  <si>
     <t>MAGICAL_ARMOR_BONUS</t>
   </si>
   <si>
+    <t>魔法护甲额外</t>
+  </si>
+  <si>
     <t>MAGICAL_ARMOR_BONUS_CONSTANT</t>
   </si>
   <si>
+    <t>魔法护甲最终</t>
+  </si>
+  <si>
     <t>MAGICAL_ARMOR_PERCENTAGE</t>
   </si>
   <si>
+    <t>魔法护甲百分比</t>
+  </si>
+  <si>
     <t>IGNORE_PHYSICAL_ARMOR_UNIQUE</t>
   </si>
   <si>
@@ -328,15 +377,21 @@
     <t>SPELL_AMPLIFY_BASE</t>
   </si>
   <si>
-    <t>技能增强</t>
+    <t>技能基础增强</t>
   </si>
   <si>
     <t>SPELL_AMPLIFY_BONUS</t>
   </si>
   <si>
+    <t>技能额外增强</t>
+  </si>
+  <si>
     <t>SPELL_AMPLIFY_BONUS_UNIQUE</t>
   </si>
   <si>
+    <t>技能最终增强</t>
+  </si>
+  <si>
     <t>SPELL_CRITICALSTRIKE</t>
   </si>
   <si>
@@ -385,10 +440,13 @@
     <t>BASE_ATTACK_TIME_PERCENTAGE</t>
   </si>
   <si>
+    <t>攻击间隔百分比</t>
+  </si>
+  <si>
     <t>COOLDOWN_PERCENTAGE</t>
   </si>
   <si>
-    <t>冷却减少</t>
+    <t>冷却减少百分比</t>
   </si>
   <si>
     <t>EVASION_CONSTANT</t>
@@ -577,8 +635,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -622,7 +680,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -638,22 +696,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -661,7 +704,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,14 +718,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,10 +740,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,7 +764,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -727,30 +786,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -764,6 +815,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -774,187 +832,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,6 +1023,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -992,30 +1115,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1024,57 +1123,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,139 +1141,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1547,24 +1608,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="7.33333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.9166666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.4166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.16666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.9166666666667" style="1" customWidth="1"/>
     <col min="4" max="16328" width="16.9166666666667" style="1" customWidth="1"/>
     <col min="16329" max="16329" width="16.9166666666667" style="1"/>
     <col min="16330" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1575,7 +1636,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1589,849 +1650,1058 @@
       <c r="A3" s="1">
         <v>20010</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19.5" spans="2:3">
-      <c r="B4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" ht="19.5" spans="1:3">
+      <c r="A4" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="19.5" spans="2:3">
-      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="19.5" spans="1:3">
+      <c r="A5" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="19.5" spans="2:3">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="19.5" spans="2:3">
-      <c r="B7" s="2" t="s">
+    <row r="6" ht="19.5" spans="1:3">
+      <c r="A6" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" spans="1:3">
+      <c r="A7" s="1">
+        <v>20014</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="19.5" spans="1:3">
       <c r="A8" s="1">
         <v>20020</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="19.5" spans="2:3">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" spans="1:3">
+      <c r="A9" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" ht="19.5" spans="2:3">
-      <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="19.5" spans="1:3">
+      <c r="A10" s="1">
+        <v>20022</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="19.5" spans="2:3">
-      <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="19.5" spans="1:3">
+      <c r="A11" s="1">
+        <v>20023</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" ht="19.5" spans="2:3">
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" spans="1:3">
+      <c r="A12" s="1">
+        <v>20024</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="19.5" spans="1:3">
       <c r="A13" s="1">
         <v>20030</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="19.5" spans="2:3">
-      <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="19.5" spans="1:3">
+      <c r="A14" s="1">
+        <v>20031</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" ht="19.5" spans="2:3">
-      <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="19.5" spans="1:3">
+      <c r="A15" s="1">
+        <v>20032</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" ht="19.5" spans="2:3">
-      <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="19.5" spans="1:3">
+      <c r="A16" s="1">
+        <v>20033</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" ht="19.5" spans="2:3">
-      <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="19.5" spans="1:3">
+      <c r="A17" s="1">
+        <v>20034</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="19.5" spans="1:3">
       <c r="A18" s="1">
         <v>20040</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" ht="19.5" spans="2:3">
-      <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="19.5" spans="1:3">
+      <c r="A19" s="1">
+        <v>20041</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" ht="19.5" spans="2:3">
-      <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" ht="19.5" spans="1:3">
+      <c r="A20" s="1">
+        <v>20042</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="19.5" spans="1:3">
       <c r="A21" s="1">
         <v>20050</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" ht="19.5" spans="2:3">
-      <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" ht="19.5" spans="1:3">
+      <c r="A22" s="1">
+        <v>20051</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" ht="19.5" spans="2:3">
-      <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" ht="19.5" spans="1:3">
+      <c r="A23" s="1">
+        <v>20052</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="19.5" spans="1:3">
       <c r="A24" s="1">
         <v>20060</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" ht="19.5" spans="2:3">
-      <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" ht="19.5" spans="1:3">
+      <c r="A25" s="1">
+        <v>20061</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" ht="19.5" spans="2:3">
-      <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="19.5" spans="1:3">
+      <c r="A26" s="1">
+        <v>20062</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="19.5" spans="1:3">
       <c r="A27" s="1">
         <v>20070</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>41</v>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" ht="19.5" spans="2:3">
-      <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" ht="19.5" spans="1:3">
+      <c r="A28" s="1">
+        <v>20071</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" ht="19.5" spans="1:3">
       <c r="A29" s="1">
         <v>20080</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" ht="19.5" spans="2:3">
-      <c r="B30" s="2" t="s">
-        <v>46</v>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" ht="19.5" spans="1:3">
+      <c r="A30" s="1">
+        <v>20081</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" ht="19.5" spans="2:3">
-      <c r="B31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" ht="19.5" spans="1:3">
+      <c r="A31" s="1">
+        <v>20082</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="19.5" spans="1:3">
       <c r="A32" s="1">
         <v>20090</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" ht="19.5" spans="2:3">
-      <c r="B33" s="2" t="s">
-        <v>50</v>
+      <c r="B32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" ht="19.5" spans="1:3">
+      <c r="A33" s="1">
+        <v>20091</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" ht="19.5" spans="2:3">
-      <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" ht="19.5" spans="1:3">
+      <c r="A34" s="1">
+        <v>20092</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" ht="19.5" spans="1:3">
       <c r="A35" s="1">
         <v>20100</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" ht="19.5" spans="2:3">
-      <c r="B36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" ht="19.5" spans="2:3">
-      <c r="B37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" ht="19.5" spans="2:3">
-      <c r="B38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>56</v>
+      <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" ht="19.5" spans="1:3">
+      <c r="A36" s="1">
+        <v>20101</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" ht="19.5" spans="1:3">
+      <c r="A37" s="1">
+        <v>20102</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" ht="19.5" spans="1:3">
+      <c r="A38" s="1">
+        <v>20103</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" ht="19.5" spans="1:3">
       <c r="A39" s="1">
         <v>20110</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" ht="19.5" spans="2:3">
-      <c r="B40" s="2" t="s">
-        <v>60</v>
+      <c r="B39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" ht="19.5" spans="1:3">
+      <c r="A40" s="1">
+        <v>20111</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" ht="19.5" spans="1:3">
       <c r="A41" s="1">
         <v>20120</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>62</v>
+      <c r="B41" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" ht="19.5" spans="2:3">
-      <c r="B42" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" ht="19.5" spans="1:3">
+      <c r="A42" s="1">
+        <v>20121</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" ht="19.5" spans="2:3">
-      <c r="B43" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" ht="19.5" spans="1:3">
+      <c r="A43" s="1">
+        <v>20122</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" ht="19.5" spans="2:3">
-      <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" ht="19.5" spans="1:3">
+      <c r="A44" s="1">
+        <v>20123</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" ht="19.5" spans="2:3">
-      <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" ht="19.5" spans="1:3">
+      <c r="A45" s="1">
+        <v>20124</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" ht="19.5" spans="1:3">
       <c r="A46" s="1">
         <v>20130</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>68</v>
+      <c r="B46" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" ht="19.5" spans="2:3">
-      <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" ht="19.5" spans="1:3">
+      <c r="A47" s="1">
+        <v>20131</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" ht="19.5" spans="2:3">
-      <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" ht="19.5" spans="1:3">
+      <c r="A48" s="1">
+        <v>20132</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" ht="19.5" spans="2:3">
-      <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" ht="19.5" spans="1:3">
+      <c r="A49" s="1">
+        <v>20133</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" ht="19.5" spans="2:3">
-      <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" ht="19.5" spans="1:3">
+      <c r="A50" s="1">
+        <v>20134</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" ht="19.5" spans="1:3">
       <c r="A51" s="1">
         <v>20140</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>74</v>
+      <c r="B51" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" ht="19.5" spans="2:3">
-      <c r="B52" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" ht="19.5" spans="1:3">
+      <c r="A52" s="1">
+        <v>20141</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" ht="19.5" spans="2:3">
-      <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" ht="19.5" spans="1:3">
+      <c r="A53" s="1">
+        <v>20142</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" ht="19.5" spans="1:3">
       <c r="A54" s="1">
         <v>20150</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>80</v>
+      <c r="B54" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" ht="19.5" spans="2:3">
-      <c r="B55" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" ht="19.5" spans="1:3">
+      <c r="A55" s="1">
+        <v>20151</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" ht="39" spans="2:3">
-      <c r="B56" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" ht="19.5" spans="1:3">
+      <c r="A56" s="1">
+        <v>20152</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" ht="19.5" spans="1:3">
       <c r="A57" s="1">
         <v>20160</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>86</v>
+      <c r="B57" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" ht="19.5" spans="2:3">
-      <c r="B58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" ht="19.5" spans="2:3">
-      <c r="B59" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>91</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" ht="19.5" spans="1:3">
+      <c r="A58" s="1">
+        <v>20161</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" ht="19.5" spans="1:3">
+      <c r="A59" s="1">
+        <v>20162</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="60" ht="19.5" spans="1:3">
       <c r="A60" s="1">
         <v>20170</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>92</v>
+      <c r="B60" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" ht="19.5" spans="2:3">
-      <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" ht="19.5" spans="1:3">
+      <c r="A61" s="1">
+        <v>20171</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" ht="19.5" spans="2:3">
-      <c r="B62" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" ht="19.5" spans="1:3">
+      <c r="A62" s="1">
+        <v>20172</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" ht="19.5" spans="1:3">
       <c r="A63" s="1">
         <v>20180</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" ht="19.5" spans="2:3">
-      <c r="B64" s="2" t="s">
-        <v>98</v>
+      <c r="B63" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" ht="19.5" spans="1:3">
+      <c r="A64" s="1">
+        <v>20181</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" ht="19.5" spans="2:3">
-      <c r="B65" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" ht="19.5" spans="1:3">
+      <c r="A65" s="1">
+        <v>20182</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" ht="19.5" spans="2:3">
-      <c r="B66" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" ht="19.5" spans="1:3">
+      <c r="A66" s="1">
+        <v>20183</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" ht="19.5" spans="1:3">
       <c r="A67" s="1">
         <v>20190</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" ht="19.5" spans="2:3">
-      <c r="B68" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" ht="19.5" spans="2:3">
-      <c r="B69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" ht="19.5" spans="2:3">
-      <c r="B70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" ht="19.5" spans="2:3">
-      <c r="B71" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>109</v>
+      <c r="B67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" ht="19.5" spans="1:3">
+      <c r="A68" s="1">
+        <v>20191</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" ht="19.5" spans="1:3">
+      <c r="A69" s="1">
+        <v>20192</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" ht="19.5" spans="1:3">
+      <c r="A70" s="1">
+        <v>20193</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" ht="19.5" spans="1:3">
+      <c r="A71" s="1">
+        <v>20194</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="72" ht="19.5" spans="1:3">
       <c r="A72" s="1">
         <v>20200</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>112</v>
+      <c r="B72" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" ht="19.5" spans="1:3">
       <c r="A73" s="1">
         <v>20210</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>114</v>
+      <c r="B73" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>20211</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" ht="19.5" spans="2:3">
-      <c r="B75" s="5" t="s">
-        <v>118</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" ht="19.5" spans="1:3">
+      <c r="A75" s="1">
+        <v>20212</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" ht="19.5" spans="1:3">
       <c r="A76" s="1">
         <v>20220</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>120</v>
+      <c r="B76" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" ht="19.5" spans="2:3">
-      <c r="B77" s="2" t="s">
-        <v>122</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" ht="19.5" spans="1:3">
+      <c r="A77" s="1">
+        <v>20221</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" ht="19.5" spans="2:3">
-      <c r="B78" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" ht="19.5" spans="1:3">
+      <c r="A78" s="1">
+        <v>20222</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" ht="19.5" spans="1:3">
       <c r="A79" s="1">
         <v>20230</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" ht="19.5" spans="2:3">
-      <c r="B80" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" ht="19.5" spans="2:3">
-      <c r="B81" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="82" ht="19.5" spans="2:3">
-      <c r="B82" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" ht="19.5" spans="2:3">
-      <c r="B83" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" ht="19.5" spans="2:3">
-      <c r="B84" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" ht="19.5" spans="2:3">
-      <c r="B85" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>137</v>
+      <c r="B79" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" ht="19.5" spans="1:3">
+      <c r="A80" s="1">
+        <v>20231</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" ht="19.5" spans="1:3">
+      <c r="A81" s="1">
+        <v>20232</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" ht="19.5" spans="1:3">
+      <c r="A82" s="1">
+        <v>20233</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" ht="19.5" spans="1:3">
+      <c r="A83" s="1">
+        <v>20234</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" ht="19.5" spans="1:3">
+      <c r="A84" s="1">
+        <v>20235</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" ht="19.5" spans="1:3">
+      <c r="A85" s="1">
+        <v>20236</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="86" ht="19.5" spans="1:3">
       <c r="A86" s="1">
         <v>20240</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" ht="19.5" spans="2:3">
-      <c r="B87" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" ht="19.5" spans="2:3">
-      <c r="B88" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" ht="19.5" spans="2:3">
-      <c r="B89" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" ht="19.5" spans="2:3">
-      <c r="B90" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" ht="19.5" spans="2:3">
-      <c r="B91" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>149</v>
+      <c r="B86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" ht="19.5" spans="1:3">
+      <c r="A87" s="1">
+        <v>20241</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" ht="19.5" spans="1:3">
+      <c r="A88" s="1">
+        <v>20242</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" ht="19.5" spans="1:3">
+      <c r="A89" s="1">
+        <v>20243</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" ht="19.5" spans="1:3">
+      <c r="A90" s="1">
+        <v>20244</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" ht="19.5" spans="1:3">
+      <c r="A91" s="1">
+        <v>20245</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="92" ht="19.5" spans="1:3">
       <c r="A92" s="1">
         <v>20250</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" ht="19.5" spans="2:3">
-      <c r="B93" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" ht="19.5" spans="2:3">
-      <c r="B94" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" ht="19.5" spans="2:3">
-      <c r="B95" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96" ht="19.5" spans="2:3">
-      <c r="B96" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" ht="37" spans="2:3">
-      <c r="B97" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>161</v>
+      <c r="B92" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" ht="19.5" spans="1:3">
+      <c r="A93" s="1">
+        <v>20251</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" ht="19.5" spans="1:3">
+      <c r="A94" s="1">
+        <v>20252</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" ht="19.5" spans="1:3">
+      <c r="A95" s="1">
+        <v>20253</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" ht="19.5" spans="1:3">
+      <c r="A96" s="1">
+        <v>20254</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" ht="37" spans="1:3">
+      <c r="A97" s="1">
+        <v>20255</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="98" ht="19.5" spans="1:3">
       <c r="A98" s="1">
         <v>20260</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>162</v>
+      <c r="B98" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" ht="19.5"/>
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2457,10 +2727,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2474,10 +2744,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -2491,30 +2761,30 @@
     </row>
     <row r="3" ht="15.5" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>

--- a/code/excels/kvConfig/prop_config.xlsx
+++ b/code/excels/kvConfig/prop_config.xlsx
@@ -635,11 +635,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,48 +655,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FF4EC9B0"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF6A9955"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF6A9955"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF4FC1FF"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -707,6 +667,29 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,14 +715,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -755,9 +769,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,45 +786,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,13 +798,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -838,31 +814,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +892,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,19 +922,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,109 +970,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,15 +999,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1050,32 +1017,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1087,6 +1028,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,6 +1065,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1123,16 +1088,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,153 +1117,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1611,7 +1575,7 @@
   <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="2"/>
@@ -1639,1066 +1603,1066 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.5" spans="1:3">
-      <c r="A3" s="1">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="2">
         <v>20010</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="19.5" spans="1:3">
-      <c r="A4" s="1">
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="2">
         <v>20011</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="19.5" spans="1:3">
-      <c r="A5" s="1">
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="2">
         <v>20012</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="19.5" spans="1:3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
         <v>20013</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="19.5" spans="1:3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
         <v>20014</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="19.5" spans="1:3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
         <v>20020</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="19.5" spans="1:3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>20021</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="19.5" spans="1:3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
         <v>20022</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="19.5" spans="1:3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
         <v>20023</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="19.5" spans="1:3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
         <v>20024</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="19.5" spans="1:3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
         <v>20030</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" ht="19.5" spans="1:3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
         <v>20031</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="19.5" spans="1:3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
         <v>20032</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" ht="19.5" spans="1:3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
         <v>20033</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" ht="19.5" spans="1:3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>20034</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" ht="19.5" spans="1:3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>20040</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" ht="19.5" spans="1:3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>20041</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" ht="19.5" spans="1:3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>20042</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" ht="19.5" spans="1:3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>20050</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" ht="19.5" spans="1:3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <v>20051</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" ht="19.5" spans="1:3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
         <v>20052</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" ht="19.5" spans="1:3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>20060</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" ht="19.5" spans="1:3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>20061</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" ht="19.5" spans="1:3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
         <v>20062</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" ht="19.5" spans="1:3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
         <v>20070</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" ht="19.5" spans="1:3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>20071</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" ht="19.5" spans="1:3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>20080</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" ht="19.5" spans="1:3">
-      <c r="A30" s="1">
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>20081</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" ht="19.5" spans="1:3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <v>20082</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" ht="19.5" spans="1:3">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
         <v>20090</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="19.5" spans="1:3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
         <v>20091</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" ht="19.5" spans="1:3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
         <v>20092</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="19.5" spans="1:3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
         <v>20100</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" ht="19.5" spans="1:3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
         <v>20101</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" ht="19.5" spans="1:3">
-      <c r="A37" s="1">
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
         <v>20102</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" ht="19.5" spans="1:3">
-      <c r="A38" s="1">
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
         <v>20103</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" ht="19.5" spans="1:3">
-      <c r="A39" s="1">
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>20110</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" ht="19.5" spans="1:3">
-      <c r="A40" s="1">
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
         <v>20111</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" ht="19.5" spans="1:3">
-      <c r="A41" s="1">
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
         <v>20120</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" ht="19.5" spans="1:3">
-      <c r="A42" s="1">
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
         <v>20121</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" ht="19.5" spans="1:3">
-      <c r="A43" s="1">
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
         <v>20122</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" ht="19.5" spans="1:3">
-      <c r="A44" s="1">
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
         <v>20123</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" ht="19.5" spans="1:3">
-      <c r="A45" s="1">
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
         <v>20124</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" ht="19.5" spans="1:3">
-      <c r="A46" s="1">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
         <v>20130</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" ht="19.5" spans="1:3">
-      <c r="A47" s="1">
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
         <v>20131</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" ht="19.5" spans="1:3">
-      <c r="A48" s="1">
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
         <v>20132</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" ht="19.5" spans="1:3">
-      <c r="A49" s="1">
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
         <v>20133</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" ht="19.5" spans="1:3">
-      <c r="A50" s="1">
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
         <v>20134</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" ht="19.5" spans="1:3">
-      <c r="A51" s="1">
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
         <v>20140</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="19.5" spans="1:3">
-      <c r="A52" s="1">
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
         <v>20141</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" ht="19.5" spans="1:3">
-      <c r="A53" s="1">
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
         <v>20142</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" ht="19.5" spans="1:3">
-      <c r="A54" s="1">
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
         <v>20150</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" ht="19.5" spans="1:3">
-      <c r="A55" s="1">
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
         <v>20151</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" ht="19.5" spans="1:3">
-      <c r="A56" s="1">
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
         <v>20152</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" ht="19.5" spans="1:3">
-      <c r="A57" s="1">
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
         <v>20160</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" ht="19.5" spans="1:3">
-      <c r="A58" s="1">
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
         <v>20161</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" ht="19.5" spans="1:3">
-      <c r="A59" s="1">
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
         <v>20162</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" ht="19.5" spans="1:3">
-      <c r="A60" s="1">
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
         <v>20170</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" ht="19.5" spans="1:3">
-      <c r="A61" s="1">
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
         <v>20171</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" ht="19.5" spans="1:3">
-      <c r="A62" s="1">
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
         <v>20172</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" ht="19.5" spans="1:3">
-      <c r="A63" s="1">
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
         <v>20180</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" ht="19.5" spans="1:3">
-      <c r="A64" s="1">
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
         <v>20181</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" ht="19.5" spans="1:3">
-      <c r="A65" s="1">
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
         <v>20182</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" ht="19.5" spans="1:3">
-      <c r="A66" s="1">
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
         <v>20183</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" ht="19.5" spans="1:3">
-      <c r="A67" s="1">
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
         <v>20190</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" ht="19.5" spans="1:3">
-      <c r="A68" s="1">
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
         <v>20191</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" ht="19.5" spans="1:3">
-      <c r="A69" s="1">
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
         <v>20192</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" ht="19.5" spans="1:3">
-      <c r="A70" s="1">
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
         <v>20193</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" ht="19.5" spans="1:3">
-      <c r="A71" s="1">
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
         <v>20194</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" ht="19.5" spans="1:3">
-      <c r="A72" s="1">
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
         <v>20200</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" ht="19.5" spans="1:3">
-      <c r="A73" s="1">
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
         <v>20210</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>20211</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75" ht="19.5" spans="1:3">
-      <c r="A75" s="1">
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
         <v>20212</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="76" ht="19.5" spans="1:3">
-      <c r="A76" s="1">
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
         <v>20220</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" ht="19.5" spans="1:3">
-      <c r="A77" s="1">
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
         <v>20221</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78" ht="19.5" spans="1:3">
-      <c r="A78" s="1">
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
         <v>20222</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" ht="19.5" spans="1:3">
-      <c r="A79" s="1">
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
         <v>20230</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="80" ht="19.5" spans="1:3">
-      <c r="A80" s="1">
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
         <v>20231</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="81" ht="19.5" spans="1:3">
-      <c r="A81" s="1">
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
         <v>20232</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="82" ht="19.5" spans="1:3">
-      <c r="A82" s="1">
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
         <v>20233</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="83" ht="19.5" spans="1:3">
-      <c r="A83" s="1">
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
         <v>20234</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="84" ht="19.5" spans="1:3">
-      <c r="A84" s="1">
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
         <v>20235</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="85" ht="19.5" spans="1:3">
-      <c r="A85" s="1">
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
         <v>20236</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="86" ht="19.5" spans="1:3">
-      <c r="A86" s="1">
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
         <v>20240</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="87" ht="19.5" spans="1:3">
-      <c r="A87" s="1">
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
         <v>20241</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="88" ht="19.5" spans="1:3">
-      <c r="A88" s="1">
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
         <v>20242</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89" ht="19.5" spans="1:3">
-      <c r="A89" s="1">
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
         <v>20243</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="90" ht="19.5" spans="1:3">
-      <c r="A90" s="1">
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
         <v>20244</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="91" ht="19.5" spans="1:3">
-      <c r="A91" s="1">
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
         <v>20245</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="92" ht="19.5" spans="1:3">
-      <c r="A92" s="1">
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
         <v>20250</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="93" ht="19.5" spans="1:3">
-      <c r="A93" s="1">
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
         <v>20251</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="94" ht="19.5" spans="1:3">
-      <c r="A94" s="1">
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
         <v>20252</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="95" ht="19.5" spans="1:3">
-      <c r="A95" s="1">
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
         <v>20253</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="96" ht="19.5" spans="1:3">
-      <c r="A96" s="1">
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
         <v>20254</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="97" ht="37" spans="1:3">
-      <c r="A97" s="1">
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
         <v>20255</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="98" ht="19.5" spans="1:3">
-      <c r="A98" s="1">
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
         <v>20260</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>192</v>
       </c>
     </row>

--- a/code/excels/kvConfig/prop_config.xlsx
+++ b/code/excels/kvConfig/prop_config.xlsx
@@ -635,9 +635,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -656,7 +656,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -677,24 +677,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,6 +709,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -715,24 +730,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,32 +771,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -783,21 +798,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -808,31 +808,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,151 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,6 +999,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1017,39 +1041,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1061,21 +1052,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,16 +1075,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1117,133 +1117,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="2"/>

--- a/code/excels/kvConfig/prop_config.xlsx
+++ b/code/excels/kvConfig/prop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -634,8 +634,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -655,47 +655,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,53 +677,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,7 +708,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,7 +771,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,13 +808,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,7 +868,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,55 +922,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,13 +952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,73 +970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,11 +1002,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,17 +1032,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,6 +1060,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1075,40 +1099,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1117,133 +1117,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1575,13 +1575,13 @@
   <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9.16666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.9166666666667" style="1" customWidth="1"/>
     <col min="4" max="16328" width="16.9166666666667" style="1" customWidth="1"/>
     <col min="16329" max="16329" width="16.9166666666667" style="1"/>
@@ -2681,7 +2681,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="21.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
@@ -2689,7 +2689,7 @@
     <col min="5" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:5">
+    <row r="1" ht="15.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:5">
+    <row r="2" ht="15.75" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>195</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.5" spans="1:5">
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:5">
+    <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
